--- a/Primera Entrega/Clase 9 - Cierre Estructuras/Alumnos/git_y_caicedo_claudio/Armado_PC.xlsx
+++ b/Primera Entrega/Clase 9 - Cierre Estructuras/Alumnos/git_y_caicedo_claudio/Armado_PC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\dh\IALI\Mochila_personal\Clase 9 - Cierre Estructuras\Alumnos\Git_y_Caicedo_Claudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casa\dh\IALI\Para Subir\Mochila_1022C1PT\Primera Entrega\Clase 9 - Cierre Estructuras\Alumnos\git_y_caicedo_claudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF2FB4C-4659-481A-8609-A866D2F13D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1784C8-BDB9-4F20-95C7-533A08CDDFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C5D99A3-292D-4EDB-AE4B-9139ECC18D70}"/>
   </bookViews>
@@ -729,24 +729,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -802,15 +784,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,18 +818,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,9 +889,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,6 +902,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4278,273 +4278,273 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="46" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="2:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="51"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="55"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="42"/>
     </row>
     <row r="7" spans="2:11" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="40" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="57"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="2:11" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="51"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" s="3" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="46" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="130.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="57"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:11" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="62" t="s">
+      <c r="G13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="51" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
